--- a/output/FOF_17412472000154.xlsx
+++ b/output/FOF_17412472000154.xlsx
@@ -1373,10 +1373,10 @@
         <v>44165</v>
       </c>
       <c r="B90">
-        <v>3.4912139</v>
+        <v>3.5390426</v>
       </c>
       <c r="C90">
-        <v>0.01270401597953241</v>
+        <v>0.02348869861713299</v>
       </c>
     </row>
   </sheetData>

--- a/output/FOF_17412472000154.xlsx
+++ b/output/FOF_17412472000154.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>FOF MULTI GLOBAL EQUITIES MULTIMERCADO INVESTIMENTO NO EXTERIOR FDO DE INV EM COTAS DE FDOS DE INVES</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41486</v>
       </c>
@@ -411,972 +405,708 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41517</v>
       </c>
       <c r="B3">
         <v>0.009328900000000084</v>
       </c>
-      <c r="C3">
-        <v>0.009328900000000084</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41547</v>
       </c>
       <c r="B4">
-        <v>-0.01162200000000002</v>
-      </c>
-      <c r="C4">
         <v>-0.02075725761939451</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41578</v>
       </c>
       <c r="B5">
-        <v>0.01366719999999999</v>
-      </c>
-      <c r="C5">
         <v>0.02558656708263429</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41608</v>
       </c>
       <c r="B6">
-        <v>0.09101389999999987</v>
-      </c>
-      <c r="C6">
         <v>0.07630384015582226</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41639</v>
       </c>
       <c r="B7">
-        <v>0.1192082999999999</v>
-      </c>
-      <c r="C7">
         <v>0.02584238385963733</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41670</v>
       </c>
       <c r="B8">
-        <v>0.1121612999999999</v>
-      </c>
-      <c r="C8">
         <v>-0.006296415064112715</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41698</v>
       </c>
       <c r="B9">
-        <v>0.1187817</v>
-      </c>
-      <c r="C9">
         <v>0.00595273365473159</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41729</v>
       </c>
       <c r="B10">
-        <v>0.08519520000000003</v>
-      </c>
-      <c r="C10">
         <v>-0.03002060187434241</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41759</v>
       </c>
       <c r="B11">
-        <v>0.07410010000000011</v>
-      </c>
-      <c r="C11">
         <v>-0.01022405922915981</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>41790</v>
       </c>
       <c r="B12">
-        <v>0.1026047999999999</v>
-      </c>
-      <c r="C12">
         <v>0.02653821557227287</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>41820</v>
       </c>
       <c r="B13">
-        <v>0.09915910000000006</v>
-      </c>
-      <c r="C13">
         <v>-0.00312505441659594</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>41851</v>
       </c>
       <c r="B14">
-        <v>0.1204388000000001</v>
-      </c>
-      <c r="C14">
         <v>0.01935998164414965</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41882</v>
       </c>
       <c r="B15">
-        <v>0.1276160000000002</v>
-      </c>
-      <c r="C15">
         <v>0.006405704622153507</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>41912</v>
       </c>
       <c r="B16">
-        <v>0.2173555</v>
-      </c>
-      <c r="C16">
         <v>0.07958338654293651</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>41943</v>
       </c>
       <c r="B17">
-        <v>0.2294855999999998</v>
-      </c>
-      <c r="C17">
         <v>0.009964303771576866</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>41973</v>
       </c>
       <c r="B18">
-        <v>0.3293972000000001</v>
-      </c>
-      <c r="C18">
         <v>0.08126292817093606</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42004</v>
       </c>
       <c r="B19">
-        <v>0.3596683000000001</v>
-      </c>
-      <c r="C19">
         <v>0.02277054592863603</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42035</v>
       </c>
       <c r="B20">
-        <v>0.3448012</v>
-      </c>
-      <c r="C20">
         <v>-0.01093435803423526</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42063</v>
       </c>
       <c r="B21">
-        <v>0.5111527</v>
-      </c>
-      <c r="C21">
         <v>0.1236996962822461</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42094</v>
       </c>
       <c r="B22">
-        <v>0.6819265999999999</v>
-      </c>
-      <c r="C22">
         <v>0.1130090294647257</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42124</v>
       </c>
       <c r="B23">
-        <v>0.6076201999999999</v>
-      </c>
-      <c r="C23">
         <v>-0.04417933576887367</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42155</v>
       </c>
       <c r="B24">
-        <v>0.7104751</v>
-      </c>
-      <c r="C24">
         <v>0.06397960164969319</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42185</v>
       </c>
       <c r="B25">
-        <v>0.6226393000000001</v>
-      </c>
-      <c r="C25">
         <v>-0.05135169754882718</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42216</v>
       </c>
       <c r="B26">
-        <v>0.8012467999999999</v>
-      </c>
-      <c r="C26">
         <v>0.1100722138308863</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42247</v>
       </c>
       <c r="B27">
-        <v>0.7924960999999999</v>
-      </c>
-      <c r="C27">
         <v>-0.004858134931870484</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42277</v>
       </c>
       <c r="B28">
-        <v>0.8978269999999999</v>
-      </c>
-      <c r="C28">
         <v>0.05876213621887372</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42308</v>
       </c>
       <c r="B29">
-        <v>0.9861650999999998</v>
-      </c>
-      <c r="C29">
         <v>0.0465469718788909</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42338</v>
       </c>
       <c r="B30">
-        <v>0.9951077000000002</v>
-      </c>
-      <c r="C30">
         <v>0.004502445441217473</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42369</v>
       </c>
       <c r="B31">
-        <v>1.000617</v>
-      </c>
-      <c r="C31">
         <v>0.002761404810376789</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42400</v>
       </c>
       <c r="B32">
-        <v>0.8762868000000001</v>
-      </c>
-      <c r="C32">
         <v>-0.06214592798121776</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42429</v>
       </c>
       <c r="B33">
-        <v>0.8609625999999999</v>
-      </c>
-      <c r="C33">
         <v>-0.008167301502094548</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42460</v>
       </c>
       <c r="B34">
-        <v>0.7895410999999999</v>
-      </c>
-      <c r="C34">
         <v>-0.03837879385646981</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42490</v>
       </c>
       <c r="B35">
-        <v>0.7344713999999999</v>
-      </c>
-      <c r="C35">
         <v>-0.0307730847869323</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42521</v>
       </c>
       <c r="B36">
-        <v>0.8413571999999998</v>
-      </c>
-      <c r="C36">
         <v>0.06162442344105523</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42551</v>
       </c>
       <c r="B37">
-        <v>0.5934373000000002</v>
-      </c>
-      <c r="C37">
         <v>-0.1346397646257878</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42582</v>
       </c>
       <c r="B38">
-        <v>0.676361</v>
-      </c>
-      <c r="C38">
         <v>0.05204076746540309</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42613</v>
       </c>
       <c r="B39">
-        <v>0.6860826</v>
-      </c>
-      <c r="C39">
         <v>0.005799228209198315</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42643</v>
       </c>
       <c r="B40">
-        <v>0.6875426</v>
-      </c>
-      <c r="C40">
         <v>0.0008659125003722679</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42674</v>
       </c>
       <c r="B41">
-        <v>0.6380357000000001</v>
-      </c>
-      <c r="C41">
         <v>-0.0293366816339925</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42704</v>
       </c>
       <c r="B42">
-        <v>0.7637335000000001</v>
-      </c>
-      <c r="C42">
         <v>0.07673691116744275</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42735</v>
       </c>
       <c r="B43">
-        <v>0.7198179</v>
-      </c>
-      <c r="C43">
         <v>-0.02489922655548593</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42766</v>
       </c>
       <c r="B44">
-        <v>0.7083936999999998</v>
-      </c>
-      <c r="C44">
         <v>-0.006642680018623004</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42794</v>
       </c>
       <c r="B45">
-        <v>0.7300051000000001</v>
-      </c>
-      <c r="C45">
         <v>0.01265012859740722</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42825</v>
       </c>
       <c r="B46">
-        <v>0.7591840999999999</v>
-      </c>
-      <c r="C46">
         <v>0.01686642426661056</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42855</v>
       </c>
       <c r="B47">
-        <v>0.8144933000000001</v>
-      </c>
-      <c r="C47">
         <v>0.03144025687817442</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42886</v>
       </c>
       <c r="B48">
-        <v>0.8571845</v>
-      </c>
-      <c r="C48">
         <v>0.02352789067890182</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>42916</v>
       </c>
       <c r="B49">
-        <v>0.9094106</v>
-      </c>
-      <c r="C49">
         <v>0.02812111559190811</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>42947</v>
       </c>
       <c r="B50">
-        <v>0.8338262000000001</v>
-      </c>
-      <c r="C50">
         <v>-0.03958519974697949</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>42978</v>
       </c>
       <c r="B51">
-        <v>0.8266397000000001</v>
-      </c>
-      <c r="C51">
         <v>-0.003918855560030687</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43008</v>
       </c>
       <c r="B52">
-        <v>0.8820787999999999</v>
-      </c>
-      <c r="C52">
         <v>0.03035032031768492</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43039</v>
       </c>
       <c r="B53">
-        <v>0.9870337</v>
-      </c>
-      <c r="C53">
         <v>0.05576541216021358</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43069</v>
       </c>
       <c r="B54">
-        <v>1.0169893</v>
-      </c>
-      <c r="C54">
         <v>0.01507553696749064</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43100</v>
       </c>
       <c r="B55">
-        <v>1.0490537</v>
-      </c>
-      <c r="C55">
         <v>0.01589715919663059</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43131</v>
       </c>
       <c r="B56">
-        <v>1.0693676</v>
-      </c>
-      <c r="C56">
         <v>0.009913795817064308</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43159</v>
       </c>
       <c r="B57">
-        <v>1.0360111</v>
-      </c>
-      <c r="C57">
         <v>-0.01611917573272148</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43190</v>
       </c>
       <c r="B58">
-        <v>1.0225444</v>
-      </c>
-      <c r="C58">
         <v>-0.006614256670801066</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43220</v>
       </c>
       <c r="B59">
-        <v>1.1609515</v>
-      </c>
-      <c r="C59">
         <v>0.06843216890566151</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43251</v>
       </c>
       <c r="B60">
-        <v>1.3264724</v>
-      </c>
-      <c r="C60">
         <v>0.07659630491475644</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43281</v>
       </c>
       <c r="B61">
-        <v>1.4134965</v>
-      </c>
-      <c r="C61">
         <v>0.03740603155231925</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43312</v>
       </c>
       <c r="B62">
-        <v>1.3794645</v>
-      </c>
-      <c r="C62">
         <v>-0.01410070410294773</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43343</v>
       </c>
       <c r="B63">
-        <v>1.6408997</v>
-      </c>
-      <c r="C63">
         <v>0.1098714437639223</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43373</v>
       </c>
       <c r="B64">
-        <v>1.6153572</v>
-      </c>
-      <c r="C64">
         <v>-0.009671893256680608</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43404</v>
       </c>
       <c r="B65">
-        <v>1.1852775</v>
-      </c>
-      <c r="C65">
         <v>-0.1644439619949427</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43434</v>
       </c>
       <c r="B66">
-        <v>1.2902435</v>
-      </c>
-      <c r="C66">
         <v>0.04803325893393384</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43465</v>
       </c>
       <c r="B67">
-        <v>1.1455046</v>
-      </c>
-      <c r="C67">
         <v>-0.06319803985908057</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43496</v>
       </c>
       <c r="B68">
-        <v>1.1716518</v>
-      </c>
-      <c r="C68">
         <v>0.01218696990908352</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43524</v>
       </c>
       <c r="B69">
-        <v>1.2987064</v>
-      </c>
-      <c r="C69">
         <v>0.0585059722741923</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43555</v>
       </c>
       <c r="B70">
-        <v>1.4394345</v>
-      </c>
-      <c r="C70">
         <v>0.06122056300882961</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43585</v>
       </c>
       <c r="B71">
-        <v>1.5836553</v>
-      </c>
-      <c r="C71">
         <v>0.05912058716887048</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43616</v>
       </c>
       <c r="B72">
-        <v>1.4294183</v>
-      </c>
-      <c r="C72">
         <v>-0.05969720496383546</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43646</v>
       </c>
       <c r="B73">
-        <v>1.5228639</v>
-      </c>
-      <c r="C73">
         <v>0.03846418708544341</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43677</v>
       </c>
       <c r="B74">
-        <v>1.4874361</v>
-      </c>
-      <c r="C74">
         <v>-0.01404269172031036</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43708</v>
       </c>
       <c r="B75">
-        <v>1.6767914</v>
-      </c>
-      <c r="C75">
         <v>0.07612468919302073</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43738</v>
       </c>
       <c r="B76">
-        <v>1.7009793</v>
-      </c>
-      <c r="C76">
         <v>0.009036154255426698</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43769</v>
       </c>
       <c r="B77">
-        <v>1.6719472</v>
-      </c>
-      <c r="C77">
         <v>-0.01074873102507667</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43799</v>
       </c>
       <c r="B78">
-        <v>1.8848605</v>
-      </c>
-      <c r="C78">
         <v>0.07968469586524751</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43830</v>
       </c>
       <c r="B79">
-        <v>1.8074184</v>
-      </c>
-      <c r="C79">
         <v>-0.0268443136158576</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43861</v>
       </c>
       <c r="B80">
-        <v>2.0232011</v>
-      </c>
-      <c r="C80">
         <v>0.0768616106526907</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43890</v>
       </c>
       <c r="B81">
-        <v>1.9213593</v>
-      </c>
-      <c r="C81">
         <v>-0.03368674349847267</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>43921</v>
       </c>
       <c r="B82">
-        <v>2.0302843</v>
-      </c>
-      <c r="C82">
         <v>0.03728572517594819</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>43951</v>
       </c>
       <c r="B83">
-        <v>2.5751731</v>
-      </c>
-      <c r="C83">
         <v>0.1798144154329018</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>43982</v>
       </c>
       <c r="B84">
-        <v>2.7694257</v>
-      </c>
-      <c r="C84">
         <v>0.05433376079049168</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>44012</v>
       </c>
       <c r="B85">
-        <v>2.9595605</v>
-      </c>
-      <c r="C85">
         <v>0.05044131789094553</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>44043</v>
       </c>
       <c r="B86">
-        <v>3.0240264</v>
-      </c>
-      <c r="C86">
         <v>0.01628107462936867</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>44074</v>
       </c>
       <c r="B87">
-        <v>3.4567899</v>
-      </c>
-      <c r="C87">
         <v>0.1075448958287151</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>44104</v>
       </c>
       <c r="B88">
-        <v>3.4713075</v>
-      </c>
-      <c r="C88">
         <v>0.003257411797670917</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>44135</v>
       </c>
       <c r="B89">
-        <v>3.4348732</v>
-      </c>
-      <c r="C89">
         <v>-0.008148466639791518</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>44165</v>
       </c>
       <c r="B90">
-        <v>3.5390426</v>
-      </c>
-      <c r="C90">
-        <v>0.02348869861713299</v>
+        <v>0.03366287901985565</v>
       </c>
     </row>
   </sheetData>
